--- a/IB/labs/wave_transmission/E4 Wave Transmission Data.xlsx
+++ b/IB/labs/wave_transmission/E4 Wave Transmission Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MEng-CW\IB\labs\wave_transmission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\source\repos\MEng-CW\IB\labs\wave_transmission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C42CCD-F552-48DE-B3AB-1A3E90F3FDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C91A1C-CF0E-43E1-AA1B-F17571237993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{2E26A866-ED06-4DC1-B845-D5346E3FE0B1}"/>
+    <workbookView xWindow="4200" yWindow="1628" windowWidth="21600" windowHeight="11332" xr2:uid="{2E26A866-ED06-4DC1-B845-D5346E3FE0B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -721,18 +721,18 @@
   <dimension ref="B2:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:G57"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.265625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -750,7 +750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -770,7 +770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>2.399</v>
       </c>
@@ -792,7 +792,7 @@
         <v>300.47475000000003</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>3</v>
       </c>
@@ -814,7 +814,7 @@
         <v>294.75</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>3.6</v>
       </c>
@@ -836,7 +836,7 @@
         <v>299.78181818181815</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -859,7 +859,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -879,7 +879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>3</v>
       </c>
@@ -906,7 +906,7 @@
         <v>0.23918575063613232</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
@@ -918,7 +918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>30</v>
       </c>
@@ -935,7 +935,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>7.4</v>
       </c>
@@ -955,7 +955,7 @@
         <v>0.56823241045662909</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>22</v>
       </c>
@@ -978,7 +978,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>34</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>28</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>29</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>1.4833333333333334</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>34</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>1.2166666666666668</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>28</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>29</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>1.0444444444444445</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>1.1777777777777778</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>28</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>1.1583333333333332</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>29</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>1.1416666666666666</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>34</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>1.1916666666666667</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
         <v>28</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>1.3666666666666667</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>28</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
         <v>28</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
         <v>28</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>1.1583333333333332</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
         <v>29</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
         <v>29</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>1.4833333333333334</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>29</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>1.0444444444444445</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
         <v>29</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>1.1416666666666666</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
         <v>34</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>1.2666666666666666</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
         <v>34</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>1.2166666666666668</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
         <v>34</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>1.1777777777777778</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
         <v>34</v>
       </c>

--- a/IB/labs/wave_transmission/E4 Wave Transmission Data.xlsx
+++ b/IB/labs/wave_transmission/E4 Wave Transmission Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\source\repos\MEng-CW\IB\labs\wave_transmission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MEng-CW\IB\labs\wave_transmission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C91A1C-CF0E-43E1-AA1B-F17571237993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2770C546-7EEB-4FC1-872E-9BFB9A753AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="1628" windowWidth="21600" windowHeight="11332" xr2:uid="{2E26A866-ED06-4DC1-B845-D5346E3FE0B1}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{2E26A866-ED06-4DC1-B845-D5346E3FE0B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>Freq</t>
   </si>
@@ -153,6 +153,21 @@
   </si>
   <si>
     <t>~1.5</t>
+  </si>
+  <si>
+    <t>R-M uncert</t>
+  </si>
+  <si>
+    <t>n uncert</t>
+  </si>
+  <si>
+    <t>RULER</t>
+  </si>
+  <si>
+    <t>err</t>
+  </si>
+  <si>
+    <t>u err</t>
   </si>
 </sst>
 </file>
@@ -718,21 +733,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B3E521-87A6-441B-AB7B-51CB91BC0261}">
-  <dimension ref="B2:H57"/>
+  <dimension ref="B2:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -749,8 +765,15 @@
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="H2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -769,8 +792,11 @@
       <c r="G3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2.399</v>
       </c>
@@ -791,8 +817,12 @@
         <f>B4*F4</f>
         <v>300.47475000000003</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="H4">
+        <f>(2*$J$3/F4 +0)*G4</f>
+        <v>2.399</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
@@ -813,8 +843,12 @@
         <f>B5*F5</f>
         <v>294.75</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="H5">
+        <f t="shared" ref="H5:H6" si="0">(2*$J$3/F5 +0)*G5</f>
+        <v>3.0000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3.6</v>
       </c>
@@ -828,15 +862,19 @@
         <v>11</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6" si="0">2*(D6-C6)/E6</f>
+        <f t="shared" ref="F6" si="1">2*(D6-C6)/E6</f>
         <v>83.272727272727266</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6" si="1">B6*F6</f>
+        <f t="shared" ref="G6" si="2">B6*F6</f>
         <v>299.78181818181815</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="H6">
+        <f>(2*$J$3/F6 +0)*G6</f>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -859,7 +897,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -879,7 +917,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>3</v>
       </c>
@@ -906,7 +944,22 @@
         <v>0.23918575063613232</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <f>(2/F5 +2/G14)*H14</f>
+        <v>2.5225155229234245E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
@@ -918,7 +971,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>30</v>
       </c>
@@ -935,7 +988,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>7.4</v>
       </c>
@@ -955,7 +1008,35 @@
         <v>0.56823241045662909</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D23">
+        <f>(B23/B20 +C23/C20)*D20</f>
+        <v>7.1141587886870902E-2</v>
+      </c>
+      <c r="E23">
+        <f>(0.5*D23/D20)*E20</f>
+        <v>9.7933927756467636E-3</v>
+      </c>
+      <c r="F23">
+        <f>2*E23</f>
+        <v>1.9586785551293527E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>22</v>
       </c>
@@ -977,8 +1058,14 @@
       <c r="H28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J28" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -1002,8 +1089,16 @@
       <c r="H29" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J29">
+        <f>2*$J$3</f>
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <f>ROUND((J29/F29 +$J$3/D29)*G29,3)</f>
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -1027,8 +1122,16 @@
       <c r="H30" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J30">
+        <f t="shared" ref="J30:J57" si="3">2*$J$3</f>
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ref="K30:K57" si="4">ROUND((J30/F30 +$J$3/D30)*G30,3)</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>34</v>
       </c>
@@ -1042,7 +1145,7 @@
         <v>60</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31:F32" si="2">E31-C31</f>
+        <f t="shared" ref="F31:F32" si="5">E31-C31</f>
         <v>8</v>
       </c>
       <c r="G31">
@@ -1052,8 +1155,16 @@
       <c r="H31" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="4"/>
+        <v>0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>28</v>
       </c>
@@ -1067,15 +1178,23 @@
         <v>64</v>
       </c>
       <c r="F32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="G32">
         <f>F32/D32 + 1</f>
         <v>1.2</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="4"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>29</v>
       </c>
@@ -1089,15 +1208,23 @@
         <v>81</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33" si="3">E33-C33</f>
+        <f t="shared" ref="F33" si="6">E33-C33</f>
         <v>29</v>
       </c>
       <c r="G33">
-        <f t="shared" ref="G33:G40" si="4">F33/D33 + 1</f>
+        <f t="shared" ref="G33:G40" si="7">F33/D33 + 1</f>
         <v>1.4833333333333334</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="4"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>34</v>
       </c>
@@ -1115,11 +1242,19 @@
         <v>13</v>
       </c>
       <c r="G34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2166666666666668</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="4"/>
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>28</v>
       </c>
@@ -1137,11 +1272,19 @@
         <v>18</v>
       </c>
       <c r="G35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="4"/>
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>29</v>
       </c>
@@ -1155,15 +1298,23 @@
         <v>56</v>
       </c>
       <c r="F36">
-        <f t="shared" ref="F36:F40" si="5">E36-C36</f>
+        <f t="shared" ref="F36:F40" si="8">E36-C36</f>
         <v>4</v>
       </c>
       <c r="G36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0444444444444445</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="4"/>
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -1177,15 +1328,23 @@
         <v>68</v>
       </c>
       <c r="F37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="G37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1777777777777778</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="4"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>28</v>
       </c>
@@ -1199,15 +1358,23 @@
         <v>71</v>
       </c>
       <c r="F38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="G38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1583333333333332</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="4"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>29</v>
       </c>
@@ -1221,15 +1388,23 @@
         <v>69</v>
       </c>
       <c r="F39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="G39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1416666666666666</v>
       </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="4"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>34</v>
       </c>
@@ -1243,15 +1418,41 @@
         <v>75</v>
       </c>
       <c r="F40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="G40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1916666666666667</v>
       </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="4"/>
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K41" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K42" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K43" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>28</v>
       </c>
@@ -1272,8 +1473,16 @@
         <f>F44/D44 + 1</f>
         <v>1.3666666666666667</v>
       </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="4"/>
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>28</v>
       </c>
@@ -1287,15 +1496,23 @@
         <v>64</v>
       </c>
       <c r="F45">
-        <f t="shared" ref="F45" si="6">E45-C45</f>
+        <f t="shared" ref="F45" si="9">E45-C45</f>
         <v>12</v>
       </c>
       <c r="G45">
         <f>F45/D45 + 1</f>
         <v>1.2</v>
       </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="4"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>28</v>
       </c>
@@ -1313,11 +1530,19 @@
         <v>18</v>
       </c>
       <c r="G46">
-        <f t="shared" ref="G46:G47" si="7">F46/D46 + 1</f>
+        <f t="shared" ref="G46:G47" si="10">F46/D46 + 1</f>
         <v>1.2</v>
       </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="J46">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="4"/>
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>28</v>
       </c>
@@ -1331,15 +1556,29 @@
         <v>71</v>
       </c>
       <c r="F47">
-        <f t="shared" ref="F47" si="8">E47-C47</f>
+        <f t="shared" ref="F47" si="11">E47-C47</f>
         <v>19</v>
       </c>
       <c r="G47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1583333333333332</v>
       </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="J47">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="4"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K48" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>29</v>
       </c>
@@ -1360,8 +1599,16 @@
         <f>F49/D49 + 1</f>
         <v>1.4</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="J49">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="4"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>29</v>
       </c>
@@ -1375,15 +1622,23 @@
         <v>81</v>
       </c>
       <c r="F50">
-        <f t="shared" ref="F50:F52" si="9">E50-C50</f>
+        <f t="shared" ref="F50:F52" si="12">E50-C50</f>
         <v>29</v>
       </c>
       <c r="G50">
-        <f t="shared" ref="G50:G52" si="10">F50/D50 + 1</f>
+        <f t="shared" ref="G50:G52" si="13">F50/D50 + 1</f>
         <v>1.4833333333333334</v>
       </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="J50">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="4"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>29</v>
       </c>
@@ -1397,15 +1652,23 @@
         <v>56</v>
       </c>
       <c r="F51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="G51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0444444444444445</v>
       </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="J51">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="4"/>
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>29</v>
       </c>
@@ -1419,15 +1682,29 @@
         <v>69</v>
       </c>
       <c r="F52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="G52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1416666666666666</v>
       </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="J52">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="4"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K53" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>34</v>
       </c>
@@ -1441,15 +1718,23 @@
         <v>60</v>
       </c>
       <c r="F54">
-        <f t="shared" ref="F54" si="11">E54-C54</f>
+        <f t="shared" ref="F54" si="14">E54-C54</f>
         <v>8</v>
       </c>
       <c r="G54">
         <f>F54/D54 + 1</f>
         <v>1.2666666666666666</v>
       </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="J54">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="4"/>
+        <v>0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>34</v>
       </c>
@@ -1467,11 +1752,19 @@
         <v>13</v>
       </c>
       <c r="G55">
-        <f t="shared" ref="G55:G57" si="12">F55/D55 + 1</f>
+        <f t="shared" ref="G55:G57" si="15">F55/D55 + 1</f>
         <v>1.2166666666666668</v>
       </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="J55">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="4"/>
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>34</v>
       </c>
@@ -1485,15 +1778,23 @@
         <v>68</v>
       </c>
       <c r="F56">
-        <f t="shared" ref="F56:F57" si="13">E56-C56</f>
+        <f t="shared" ref="F56:F57" si="16">E56-C56</f>
         <v>16</v>
       </c>
       <c r="G56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1777777777777778</v>
       </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="J56">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="4"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>34</v>
       </c>
@@ -1507,12 +1808,20 @@
         <v>75</v>
       </c>
       <c r="F57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>23</v>
       </c>
       <c r="G57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1916666666666667</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="4"/>
+        <v>5.7000000000000002E-2</v>
       </c>
     </row>
   </sheetData>
